--- a/biology/Médecine/Ministère_de_la_Santé_(Espagne)/Ministère_de_la_Santé_(Espagne).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Espagne)/Ministère_de_la_Santé_(Espagne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
+          <t>Ministère_de_la_Santé_(Espagne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé (en espagnol : Ministerio de Sanidad) est le département ministériel responsable de la santé publique en Espagne.
 Il est actuellement dirigé, depuis le 21 novembre 2023, par Mónica García.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
+          <t>Ministère_de_la_Santé_(Espagne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fonctions
-Le ministère est responsable de la proposition et la mise en œuvre des politiques gouvernementales en matière de santé, de planification et d'assistance sanitaire, ainsi que de l'exercice des compétences de l'État assurant aux Espagnols le droit à la protection de leur santé[1].
-Organisation
-Le ministère de la Santé s'organise de la façon suivante[2] :
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère est responsable de la proposition et la mise en œuvre des politiques gouvernementales en matière de santé, de planification et d'assistance sanitaire, ainsi que de l'exercice des compétences de l'État assurant aux Espagnols le droit à la protection de leur santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Espagne)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le ministère de la Santé s'organise de la façon suivante :
 ministre de la Santé
 secrétariat d'État à la Santé
 secrétariat général de la Santé numérique, de l'Information et de l'Innovation du système national de santé
@@ -533,45 +585,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier ministère chargé uniquement des questions de santé publique est créé en 1977, après la fin du franquisme, sous le nom de « ministère de la Santé et de la Sécurité sociale » (Ministerio de Sanidad y Seguridad Social)[3]. Réuni quatre ans plus tard au ministère du Travail pour former le ministère du Travail, de la Santé et de la Sécurité sociale (Ministerio de Trabajo, Sanidad y Seguridad Social)[4], il retrouve son autonomie au mois de décembre 1981, mais il perd ses compétences sur la sécurité sociale et devient le ministère de la Santé et de la Consommation (Ministerio de Sanidad y Consumo)[5].
-Lors d'un important remaniement ministériel, en 2009, il obtient l'ensemble des compétences sur les politiques sociales et familiales, étant rebaptisé ministère de la Santé et de la Politique sociale (Ministerio de Sanidad y Política Social)[6]. À la suite du remaniement de 2010, il absorbe le ministère de l'Égalité et devient alors le ministère de la Santé, de la Politique sociale et de l'Égalité (Ministerio de Sanidad, Política Social e Igualdad)[7]. Avec le retour au pouvoir du Parti populaire (PP), il prend le titre de ministère de la Santé, des Services sociaux et de l'Égalité (Ministerio de Sanidad, Servicios Sociales e Igualdad) sans que ses compétences soient modifiées[8].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
+          <t>Ministère_de_la_Santé_(Espagne)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +606,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Titulaires depuis 1977</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier ministère chargé uniquement des questions de santé publique est créé en 1977, après la fin du franquisme, sous le nom de « ministère de la Santé et de la Sécurité sociale » (Ministerio de Sanidad y Seguridad Social). Réuni quatre ans plus tard au ministère du Travail pour former le ministère du Travail, de la Santé et de la Sécurité sociale (Ministerio de Trabajo, Sanidad y Seguridad Social), il retrouve son autonomie au mois de décembre 1981, mais il perd ses compétences sur la sécurité sociale et devient le ministère de la Santé et de la Consommation (Ministerio de Sanidad y Consumo).
+Lors d'un important remaniement ministériel, en 2009, il obtient l'ensemble des compétences sur les politiques sociales et familiales, étant rebaptisé ministère de la Santé et de la Politique sociale (Ministerio de Sanidad y Política Social). À la suite du remaniement de 2010, il absorbe le ministère de l'Égalité et devient alors le ministère de la Santé, de la Politique sociale et de l'Égalité (Ministerio de Sanidad, Política Social e Igualdad). Avec le retour au pouvoir du Parti populaire (PP), il prend le titre de ministère de la Santé, des Services sociaux et de l'Égalité (Ministerio de Sanidad, Servicios Sociales e Igualdad) sans que ses compétences soient modifiées.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
+          <t>Ministère_de_la_Santé_(Espagne)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +640,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Titulaires depuis 1977</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Espagne)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Espagne)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Identité visuelle (logotype)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Logo du ministère de la Santé et de la Consommation entre 1981 et 2009.
